--- a/server/branch/protected/models/excel/example/山塘模板.xlsx
+++ b/server/branch/protected/models/excel/example/山塘模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-280" yWindow="1980" windowWidth="23340" windowHeight="11380" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>出口高程（m）</t>
   </si>
   <si>
-    <t>照片</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -100,6 +97,10 @@
   </si>
   <si>
     <t>山塘名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山塘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -107,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +132,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -149,21 +168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -224,27 +228,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,7 +548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -520,141 +556,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="5" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="5" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="5" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="6"/>
+      <c r="X2" s="4"/>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="W3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="I1:L1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/server/branch/protected/models/excel/example/山塘模板.xlsx
+++ b/server/branch/protected/models/excel/example/山塘模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,15 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -548,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,89 +557,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="6" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="4"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -657,7 +658,7 @@
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -690,7 +691,7 @@
       <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
@@ -702,6 +703,80 @@
       </c>
       <c r="X3" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>2323</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>434</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4">
+        <v>343</v>
+      </c>
+      <c r="Q4">
+        <v>433</v>
+      </c>
+      <c r="R4">
+        <v>344</v>
+      </c>
+      <c r="S4">
+        <v>34</v>
+      </c>
+      <c r="T4">
+        <v>34</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/server/branch/protected/models/excel/example/山塘模板.xlsx
+++ b/server/branch/protected/models/excel/example/山塘模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>堤坝高程(m)</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>设计水位(m)</t>
-  </si>
-  <si>
-    <t>相应库容(万m3)</t>
   </si>
   <si>
     <t>正常水位（m)</t>
@@ -259,6 +256,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,7 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -549,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,89 +554,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F3" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+    <row r="1" spans="1:23">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:23">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="3" t="s">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="7"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:23">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
@@ -655,14 +650,14 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
@@ -671,16 +666,16 @@
         <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
@@ -688,24 +683,21 @@
       <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="4"/>
       <c r="U3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>111</v>
       </c>
@@ -737,34 +729,34 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M4">
+        <v>434</v>
+      </c>
+      <c r="N4">
+        <v>43</v>
+      </c>
+      <c r="O4">
+        <v>343</v>
+      </c>
+      <c r="P4">
+        <v>433</v>
+      </c>
+      <c r="Q4">
+        <v>344</v>
+      </c>
+      <c r="R4">
         <v>34</v>
-      </c>
-      <c r="N4">
-        <v>434</v>
-      </c>
-      <c r="O4">
-        <v>43</v>
-      </c>
-      <c r="P4">
-        <v>343</v>
-      </c>
-      <c r="Q4">
-        <v>433</v>
-      </c>
-      <c r="R4">
-        <v>344</v>
       </c>
       <c r="S4">
         <v>34</v>
       </c>
       <c r="T4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <v>4</v>
@@ -773,24 +765,21 @@
         <v>4</v>
       </c>
       <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
